--- a/artfynd/A 13322-2022.xlsx
+++ b/artfynd/A 13322-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99874866</v>
+        <v>99874871</v>
       </c>
       <c r="B2" t="n">
-        <v>76504</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>314</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>569155.0690341432</v>
+        <v>568847.6642127298</v>
       </c>
       <c r="R2" t="n">
-        <v>7194374.383747827</v>
+        <v>7193870.462011612</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -807,10 +807,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99874871</v>
+        <v>99874907</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>89410</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,25 +819,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>568847.6642127298</v>
+        <v>568860.0917864562</v>
       </c>
       <c r="R3" t="n">
-        <v>7193870.462011612</v>
+        <v>7193848.625486347</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99874886</v>
+        <v>99874908</v>
       </c>
       <c r="B4" t="n">
-        <v>76863</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,25 +946,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>568880.9165456441</v>
+        <v>568735.6995153575</v>
       </c>
       <c r="R4" t="n">
-        <v>7194240.040821896</v>
+        <v>7193942.341040122</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:01</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1061,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99874927</v>
+        <v>99874935</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>73686</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1077,21 +1077,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>569335.5030382421</v>
+        <v>568860.0917864562</v>
       </c>
       <c r="R5" t="n">
-        <v>7194269.659003499</v>
+        <v>7193848.625486347</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>granticka</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99874914</v>
+        <v>99874880</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1204,21 +1204,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>569141.1307401771</v>
+        <v>568733.5515200808</v>
       </c>
       <c r="R6" t="n">
-        <v>7194369.383468732</v>
+        <v>7193943.142624542</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99874929</v>
+        <v>99874877</v>
       </c>
       <c r="B7" t="n">
-        <v>81236</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1331,34 +1331,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>569208.830158457</v>
+        <v>568711.4306567817</v>
       </c>
       <c r="R7" t="n">
-        <v>7194093.178740779</v>
+        <v>7193904.774240309</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1400,7 +1405,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1411,21 +1416,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1442,10 +1432,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99874921</v>
+        <v>99874866</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>76504</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,21 +1448,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>314</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1482,10 +1472,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>568850.8290164901</v>
+        <v>569155.0690341432</v>
       </c>
       <c r="R8" t="n">
-        <v>7193769.708810933</v>
+        <v>7194374.383747827</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1517,7 +1507,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1527,7 +1517,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1569,10 +1559,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99874901</v>
+        <v>99874886</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>76863</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1581,25 +1571,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1609,10 +1599,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>568462.2830082865</v>
+        <v>568880.9165456441</v>
       </c>
       <c r="R9" t="n">
-        <v>7193530.64736261</v>
+        <v>7194240.040821896</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1644,7 +1634,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1654,7 +1644,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:38</t>
+          <t>14:01</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1665,6 +1655,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1681,10 +1686,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99874903</v>
+        <v>99874927</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1697,21 +1702,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1721,10 +1726,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>569023.6196330723</v>
+        <v>569335.5030382421</v>
       </c>
       <c r="R10" t="n">
-        <v>7194349.662084485</v>
+        <v>7194269.659003499</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1756,7 +1761,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1766,7 +1771,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1808,7 +1813,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99874913</v>
+        <v>99874914</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1848,10 +1853,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>569105.4313537823</v>
+        <v>569141.1307401771</v>
       </c>
       <c r="R11" t="n">
-        <v>7194347.718282382</v>
+        <v>7194369.383468732</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1883,7 +1888,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1893,7 +1898,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1935,10 +1940,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99874894</v>
+        <v>99874929</v>
       </c>
       <c r="B12" t="n">
-        <v>77588</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1951,21 +1956,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>864</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1975,10 +1980,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>569220.4176848246</v>
+        <v>569208.830158457</v>
       </c>
       <c r="R12" t="n">
-        <v>7194366.108566319</v>
+        <v>7194093.178740779</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2010,7 +2015,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2020,7 +2025,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2062,10 +2067,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99874907</v>
+        <v>99874921</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2078,21 +2083,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2102,10 +2107,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>568860.0917864562</v>
+        <v>568850.8290164901</v>
       </c>
       <c r="R13" t="n">
-        <v>7193848.625486347</v>
+        <v>7193769.708810933</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2137,7 +2142,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2147,7 +2152,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2189,10 +2194,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99874908</v>
+        <v>99874903</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2205,21 +2210,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2229,10 +2234,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>568735.6995153575</v>
+        <v>569023.6196330723</v>
       </c>
       <c r="R14" t="n">
-        <v>7193942.341040122</v>
+        <v>7194349.662084485</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2264,7 +2269,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2274,7 +2279,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2316,10 +2321,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>99874888</v>
+        <v>99874913</v>
       </c>
       <c r="B15" t="n">
-        <v>76863</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2328,25 +2333,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2356,10 +2361,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>569140.2402477085</v>
+        <v>569105.4313537823</v>
       </c>
       <c r="R15" t="n">
-        <v>7194371.064334808</v>
+        <v>7194347.718282382</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2391,7 +2396,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2401,7 +2406,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2443,10 +2448,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99874897</v>
+        <v>99874894</v>
       </c>
       <c r="B16" t="n">
-        <v>55608</v>
+        <v>77588</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2459,39 +2464,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102612</v>
+        <v>864</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>569029.4330595188</v>
+        <v>569220.4176848246</v>
       </c>
       <c r="R16" t="n">
-        <v>7193949.087675139</v>
+        <v>7194366.108566319</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>13:35</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2544,6 +2544,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2560,10 +2575,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99874872</v>
+        <v>99874888</v>
       </c>
       <c r="B17" t="n">
-        <v>56395</v>
+        <v>76863</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2572,43 +2587,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>569366.5754478904</v>
+        <v>569140.2402477085</v>
       </c>
       <c r="R17" t="n">
-        <v>7194399.260671999</v>
+        <v>7194371.064334808</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2640,7 +2650,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2650,7 +2660,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2661,6 +2671,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2677,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>99874935</v>
+        <v>99874897</v>
       </c>
       <c r="B18" t="n">
-        <v>73686</v>
+        <v>55608</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2693,34 +2718,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>308</v>
+        <v>102612</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>568860.0917864562</v>
+        <v>569029.4330595188</v>
       </c>
       <c r="R18" t="n">
-        <v>7193848.625486347</v>
+        <v>7193949.087675139</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2752,7 +2782,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2762,7 +2792,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2773,21 +2803,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>granticka</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Porodaedalea chrysoloma</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Porodaedalea chrysoloma</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2804,10 +2819,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99874867</v>
+        <v>99874872</v>
       </c>
       <c r="B19" t="n">
-        <v>76504</v>
+        <v>56395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2820,34 +2835,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>569270.7440255519</v>
+        <v>569366.5754478904</v>
       </c>
       <c r="R19" t="n">
-        <v>7194160.117588514</v>
+        <v>7194399.260671999</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2879,7 +2899,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2889,7 +2909,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2900,21 +2920,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2931,10 +2936,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99874869</v>
+        <v>99874867</v>
       </c>
       <c r="B20" t="n">
-        <v>73693</v>
+        <v>76504</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2947,21 +2952,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>314</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2971,10 +2976,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>568778.1211340926</v>
+        <v>569270.7440255519</v>
       </c>
       <c r="R20" t="n">
-        <v>7193689.760010699</v>
+        <v>7194160.117588514</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -3006,7 +3011,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3016,7 +3021,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3058,10 +3063,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99874911</v>
+        <v>99874869</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3074,21 +3079,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3098,10 +3103,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>568886.5493947867</v>
+        <v>568778.1211340926</v>
       </c>
       <c r="R21" t="n">
-        <v>7194272.923255517</v>
+        <v>7193689.760010699</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3133,7 +3138,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3143,7 +3148,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3185,10 +3190,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99874887</v>
+        <v>99874911</v>
       </c>
       <c r="B22" t="n">
-        <v>76863</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3197,25 +3202,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3225,10 +3230,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>568952.0031849314</v>
+        <v>568886.5493947867</v>
       </c>
       <c r="R22" t="n">
-        <v>7194315.687474321</v>
+        <v>7194272.923255517</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3260,7 +3265,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3270,7 +3275,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3312,10 +3317,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99874876</v>
+        <v>99874887</v>
       </c>
       <c r="B23" t="n">
-        <v>56540</v>
+        <v>76863</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3324,47 +3329,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>569231.5396826513</v>
+        <v>568952.0031849314</v>
       </c>
       <c r="R23" t="n">
-        <v>7194345.523063817</v>
+        <v>7194315.687474321</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3396,7 +3392,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3406,7 +3402,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3417,6 +3413,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3433,10 +3444,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99874926</v>
+        <v>99874876</v>
       </c>
       <c r="B24" t="n">
-        <v>81236</v>
+        <v>56540</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3449,34 +3460,43 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>569416.2026525026</v>
+        <v>569231.5396826513</v>
       </c>
       <c r="R24" t="n">
-        <v>7194444.644997349</v>
+        <v>7194345.523063817</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3508,7 +3528,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3518,7 +3538,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3529,21 +3549,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3560,10 +3565,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>99874904</v>
+        <v>99874926</v>
       </c>
       <c r="B25" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3576,21 +3581,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3600,10 +3605,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>569105.8719704481</v>
+        <v>569416.2026525026</v>
       </c>
       <c r="R25" t="n">
-        <v>7193995.941093843</v>
+        <v>7194444.644997349</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3635,7 +3640,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3645,7 +3650,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3687,10 +3692,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99874919</v>
+        <v>99874904</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3703,21 +3708,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3727,10 +3732,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>569028.611018372</v>
+        <v>569105.8719704481</v>
       </c>
       <c r="R26" t="n">
-        <v>7193947.792527781</v>
+        <v>7193995.941093843</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3762,7 +3767,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3772,7 +3777,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3814,7 +3819,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>99874917</v>
+        <v>99874919</v>
       </c>
       <c r="B27" t="n">
         <v>77506</v>
@@ -3854,10 +3859,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>569366.5754478904</v>
+        <v>569028.611018372</v>
       </c>
       <c r="R27" t="n">
-        <v>7194399.260671999</v>
+        <v>7193947.792527781</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3889,7 +3894,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3899,7 +3904,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3941,10 +3946,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99874925</v>
+        <v>99874917</v>
       </c>
       <c r="B28" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3957,21 +3962,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3981,10 +3986,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>569231.5887607882</v>
+        <v>569366.5754478904</v>
       </c>
       <c r="R28" t="n">
-        <v>7194343.397425982</v>
+        <v>7194399.260671999</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -4016,7 +4021,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4026,7 +4031,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4068,7 +4073,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>99874928</v>
+        <v>99874925</v>
       </c>
       <c r="B29" t="n">
         <v>81236</v>
@@ -4108,10 +4113,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569270.8225939712</v>
+        <v>569231.5887607882</v>
       </c>
       <c r="R29" t="n">
-        <v>7194156.71635724</v>
+        <v>7194343.397425982</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4143,7 +4148,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4153,7 +4158,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4195,10 +4200,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99874910</v>
+        <v>99874928</v>
       </c>
       <c r="B30" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4211,21 +4216,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4235,10 +4240,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>568874.5982391861</v>
+        <v>569270.8225939712</v>
       </c>
       <c r="R30" t="n">
-        <v>7194199.910985952</v>
+        <v>7194156.71635724</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4270,7 +4275,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4280,7 +4285,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4322,10 +4327,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99874892</v>
+        <v>99874910</v>
       </c>
       <c r="B31" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4338,21 +4343,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4362,10 +4367,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>569137.3685886322</v>
+        <v>568874.5982391861</v>
       </c>
       <c r="R31" t="n">
-        <v>7194366.319269118</v>
+        <v>7194199.910985952</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4397,7 +4402,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4407,7 +4412,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4449,10 +4454,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>99874916</v>
+        <v>99874892</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4465,21 +4470,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4489,10 +4494,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>569300.9192943162</v>
+        <v>569137.3685886322</v>
       </c>
       <c r="R32" t="n">
-        <v>7194402.421303751</v>
+        <v>7194366.319269118</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4524,7 +4529,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4534,7 +4539,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4576,10 +4581,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99874874</v>
+        <v>99874916</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4592,39 +4597,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>568827.8409263557</v>
+        <v>569300.9192943162</v>
       </c>
       <c r="R33" t="n">
-        <v>7193713.448993189</v>
+        <v>7194402.421303751</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4677,6 +4677,21 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4693,10 +4708,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99874933</v>
+        <v>99874874</v>
       </c>
       <c r="B34" t="n">
-        <v>73686</v>
+        <v>56395</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4709,34 +4724,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>569293.0876388617</v>
+        <v>568827.8409263557</v>
       </c>
       <c r="R34" t="n">
-        <v>7194391.181277379</v>
+        <v>7193713.448993189</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4768,7 +4788,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4778,7 +4798,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4789,21 +4809,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>glasbjörk</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4820,10 +4825,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>99874898</v>
+        <v>99874933</v>
       </c>
       <c r="B35" t="n">
-        <v>73678</v>
+        <v>73686</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4832,25 +4837,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6439</v>
+        <v>308</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4860,10 +4865,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>569300.9192943162</v>
+        <v>569293.0876388617</v>
       </c>
       <c r="R35" t="n">
-        <v>7194402.421303751</v>
+        <v>7194391.181277379</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4895,7 +4900,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4905,7 +4910,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4947,10 +4952,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>99874895</v>
+        <v>99874898</v>
       </c>
       <c r="B36" t="n">
-        <v>77588</v>
+        <v>73678</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4959,25 +4964,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>864</v>
+        <v>6439</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4987,10 +4992,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>569416.1829687455</v>
+        <v>569300.9192943162</v>
       </c>
       <c r="R36" t="n">
-        <v>7194445.495224289</v>
+        <v>7194402.421303751</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -5022,7 +5027,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -5032,7 +5037,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5046,17 +5051,17 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -5074,10 +5079,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99874915</v>
+        <v>99874895</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -5090,21 +5095,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -5114,10 +5119,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569231.5887607882</v>
+        <v>569416.1829687455</v>
       </c>
       <c r="R37" t="n">
-        <v>7194343.397425982</v>
+        <v>7194445.495224289</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -5149,7 +5154,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5159,7 +5164,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5201,10 +5206,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>99874890</v>
+        <v>99874915</v>
       </c>
       <c r="B38" t="n">
-        <v>76863</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5213,25 +5218,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5241,10 +5246,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569333.9950763843</v>
+        <v>569231.5887607882</v>
       </c>
       <c r="R38" t="n">
-        <v>7194371.710128829</v>
+        <v>7194343.397425982</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5276,7 +5281,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5286,7 +5291,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5328,10 +5333,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>99874880</v>
+        <v>99874890</v>
       </c>
       <c r="B39" t="n">
-        <v>73698</v>
+        <v>76863</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5340,25 +5345,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1467</v>
+        <v>498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5368,10 +5373,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>568733.5515200808</v>
+        <v>569333.9950763843</v>
       </c>
       <c r="R39" t="n">
-        <v>7193943.142624542</v>
+        <v>7194371.710128829</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5403,7 +5408,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5413,7 +5418,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5427,17 +5432,17 @@
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>glasbjörk</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Betula pubescens</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -6090,10 +6095,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>99874877</v>
+        <v>99874884</v>
       </c>
       <c r="B45" t="n">
-        <v>56411</v>
+        <v>76490</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6106,39 +6111,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>228579</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Krokbäcken, Nästansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>568711.4306567817</v>
+        <v>568776.8244215889</v>
       </c>
       <c r="R45" t="n">
-        <v>7193904.774240309</v>
+        <v>7193690.581162377</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6191,6 +6191,21 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
@@ -6207,10 +6222,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>99874884</v>
+        <v>99874909</v>
       </c>
       <c r="B46" t="n">
-        <v>76490</v>
+        <v>77506</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6223,21 +6238,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6247,10 +6262,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>568776.8244215889</v>
+        <v>568839.5759189092</v>
       </c>
       <c r="R46" t="n">
-        <v>7193690.581162377</v>
+        <v>7194111.478900808</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6282,7 +6297,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6292,7 +6307,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6334,7 +6349,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>99874909</v>
+        <v>99874922</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -6374,10 +6389,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>568839.5759189092</v>
+        <v>568773.6590083888</v>
       </c>
       <c r="R47" t="n">
-        <v>7194111.478900808</v>
+        <v>7193698.591990191</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6409,7 +6424,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6419,7 +6434,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6461,10 +6476,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>99874922</v>
+        <v>99874885</v>
       </c>
       <c r="B48" t="n">
-        <v>77506</v>
+        <v>76863</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6473,25 +6488,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6501,10 +6516,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>568773.6590083888</v>
+        <v>568874.5982391861</v>
       </c>
       <c r="R48" t="n">
-        <v>7193698.591990191</v>
+        <v>7194199.910985952</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6536,7 +6551,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6546,7 +6561,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>14:03</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6588,10 +6603,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>99874885</v>
+        <v>99874870</v>
       </c>
       <c r="B49" t="n">
-        <v>76863</v>
+        <v>89356</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6600,25 +6615,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>498</v>
+        <v>5447</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6628,10 +6643,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>568874.5982391861</v>
+        <v>568886.5493947867</v>
       </c>
       <c r="R49" t="n">
-        <v>7194199.910985952</v>
+        <v>7194272.923255517</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6663,7 +6678,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6673,7 +6688,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6715,10 +6730,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>99874870</v>
+        <v>99874902</v>
       </c>
       <c r="B50" t="n">
-        <v>89356</v>
+        <v>89410</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6727,25 +6742,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6755,10 +6770,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>568886.5493947867</v>
+        <v>568839.5759189092</v>
       </c>
       <c r="R50" t="n">
-        <v>7194272.923255517</v>
+        <v>7194111.478900808</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6790,7 +6805,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6800,7 +6815,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6842,10 +6857,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>99874902</v>
+        <v>99874891</v>
       </c>
       <c r="B51" t="n">
-        <v>89410</v>
+        <v>77588</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6858,21 +6873,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>864</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6882,10 +6897,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>568839.5759189092</v>
+        <v>569105.4509492764</v>
       </c>
       <c r="R51" t="n">
-        <v>7194111.478900808</v>
+        <v>7194346.868028226</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6917,7 +6932,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6927,7 +6942,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6969,10 +6984,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>99874891</v>
+        <v>99874901</v>
       </c>
       <c r="B52" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6985,21 +7000,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -7009,10 +7024,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>569105.4509492764</v>
+        <v>568462.2830082865</v>
       </c>
       <c r="R52" t="n">
-        <v>7194346.868028226</v>
+        <v>7193530.64736261</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -7044,7 +7059,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -7054,7 +7069,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:38</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -7065,21 +7080,6 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
